--- a/src/main/resources/questions/Dates.xlsx
+++ b/src/main/resources/questions/Dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nikhil KM\AmoghLMS\LearningManagementSystem\src\main\resources\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{366E8188-E1E7-4297-9044-CDA25638FA6F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{631B6C3A-61E8-42A8-9C3B-6EB265FC2AED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
